--- a/mednickdb_pyparse/stagemaps/WamsleyLab_stagemap.xlsx
+++ b/mednickdb_pyparse/stagemaps/WamsleyLab_stagemap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>mapsfrom</t>
   </si>
@@ -64,12 +64,18 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>sws</t>
+  </si>
+  <si>
+    <t>rem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,12 +393,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,70 +409,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>-1</v>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
